--- a/data_prep.xlsx
+++ b/data_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bella/Desktop/project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{89D7881D-C767-A54A-B261-8C948348ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{19A63A8D-F4D8-734F-A160-B9FF12A7FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="-3100" windowWidth="38400" windowHeight="19540" xr2:uid="{436D7333-20F4-AB47-BEEA-B865AD8E8653}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15940" xr2:uid="{436D7333-20F4-AB47-BEEA-B865AD8E8653}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表3" sheetId="4" r:id="rId1"/>
@@ -5714,7 +5714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5740,6 +5740,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5787,7 +5793,48 @@
     <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -17212,6 +17259,127 @@
   <dataFields count="1">
     <dataField name="加總 - count" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="8">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="7" count="7" selected="0">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="7">
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="7" count="4" selected="0">
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="4">
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="7" count="4" selected="0">
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+          </reference>
+          <reference field="9" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="4">
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="3">
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -17543,16 +17711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C812EE-3CB1-9546-965C-25E3985BA5EF}">
   <dimension ref="A3:AO58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
     <col min="26" max="33" width="4" bestFit="1" customWidth="1"/>
@@ -17587,58 +17754,58 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>12</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <v>13</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="9">
         <v>15</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="9">
         <v>16</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <v>17</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="9">
         <v>18</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="9">
         <v>19</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="9">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="9">
         <v>21</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="9">
         <v>22</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="9">
         <v>23</v>
       </c>
       <c r="X4" t="s">
@@ -17660,54 +17827,54 @@
         <v>3</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <v>10</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10">
         <v>6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="10">
         <v>12</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="10">
         <v>6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="10">
         <v>31</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="10">
         <v>14</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="10">
         <v>15</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="10">
         <v>12</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="10">
         <v>16</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="10">
         <v>14</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="10">
         <v>11</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="10">
         <v>14</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="10">
         <v>11</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="10">
         <v>2</v>
       </c>
       <c r="X5" s="5"/>
@@ -17723,54 +17890,54 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="10">
         <v>8</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="10">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="10">
         <v>8</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="10">
         <v>6</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="10">
         <v>14</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="10">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="10">
         <v>8</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="10">
         <v>16</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="10">
         <v>15</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="10">
         <v>22</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="10">
         <v>8</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="10">
         <v>8</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="10">
         <v>6</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="10">
         <v>1</v>
       </c>
       <c r="X6" s="5"/>
@@ -17782,7 +17949,7 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
@@ -17790,58 +17957,58 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="10">
         <v>14</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>11</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>14</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>19</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>20</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="10">
         <v>17</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="10">
         <v>48</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="10">
         <v>23</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="10">
         <v>43</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="10">
         <v>17</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="10">
         <v>30</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="10">
         <v>37</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="10">
         <v>27</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="10">
         <v>17</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="10">
         <v>14</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="10">
         <v>4</v>
       </c>
       <c r="X7" s="5"/>
@@ -17857,52 +18024,52 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
         <v>2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="10">
         <v>3</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="10">
         <v>3</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="10">
         <v>4</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="10">
         <v>2</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="10">
         <v>4</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="10">
         <v>2</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="10">
         <v>2</v>
       </c>
-      <c r="W8" s="5"/>
+      <c r="W8" s="10"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5">
         <v>29</v>
@@ -17931,9 +18098,9 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
@@ -17998,13 +18165,13 @@
       <c r="T10" s="5">
         <v>50</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="10">
         <v>41</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="10">
         <v>33</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="10">
         <v>7</v>
       </c>
       <c r="X10" s="5"/>
@@ -18033,15 +18200,60 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B15">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>111</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25">
